--- a/pred_ohlcv/54/2019-10-15 TRUE ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-15 TRUE ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -423,9 +428,12 @@
         <v>2012800</v>
       </c>
       <c r="G2" t="n">
-        <v>248.6666666666667</v>
+        <v>248.7166666666667</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -446,12 +454,15 @@
         <v>248</v>
       </c>
       <c r="F3" t="n">
-        <v>2034999</v>
+        <v>2012800</v>
       </c>
       <c r="G3" t="n">
-        <v>248.6166666666667</v>
+        <v>248.6666666666667</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -472,12 +483,15 @@
         <v>248</v>
       </c>
       <c r="F4" t="n">
-        <v>1990601</v>
+        <v>2034999</v>
       </c>
       <c r="G4" t="n">
-        <v>248.5666666666667</v>
+        <v>248.6166666666667</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -498,12 +512,15 @@
         <v>248</v>
       </c>
       <c r="F5" t="n">
-        <v>2027600</v>
+        <v>1990601</v>
       </c>
       <c r="G5" t="n">
-        <v>248.5166666666667</v>
+        <v>248.5666666666667</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -524,12 +541,15 @@
         <v>248</v>
       </c>
       <c r="F6" t="n">
-        <v>2012800</v>
+        <v>2027600</v>
       </c>
       <c r="G6" t="n">
-        <v>248.4666666666667</v>
+        <v>248.5166666666667</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -550,12 +570,15 @@
         <v>248</v>
       </c>
       <c r="F7" t="n">
-        <v>554999</v>
+        <v>2012800</v>
       </c>
       <c r="G7" t="n">
-        <v>248.4166666666667</v>
+        <v>248.4666666666667</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -576,12 +599,15 @@
         <v>248</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>554999</v>
       </c>
       <c r="G8" t="n">
-        <v>248.3666666666667</v>
+        <v>248.4166666666667</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C9" t="n">
         <v>248</v>
@@ -599,15 +625,18 @@
         <v>248</v>
       </c>
       <c r="E9" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F9" t="n">
-        <v>24818.439</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>248.3333333333333</v>
+        <v>248.3666666666667</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,7 +645,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C10" t="n">
         <v>248</v>
@@ -625,15 +654,18 @@
         <v>248</v>
       </c>
       <c r="E10" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F10" t="n">
-        <v>1749830</v>
+        <v>24818.439</v>
       </c>
       <c r="G10" t="n">
-        <v>248.3</v>
+        <v>248.3333333333333</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -654,12 +686,15 @@
         <v>248</v>
       </c>
       <c r="F11" t="n">
-        <v>2046724</v>
+        <v>1749830</v>
       </c>
       <c r="G11" t="n">
-        <v>248.2666666666667</v>
+        <v>248.3</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -680,12 +715,15 @@
         <v>248</v>
       </c>
       <c r="F12" t="n">
-        <v>2042720</v>
+        <v>2046724</v>
       </c>
       <c r="G12" t="n">
-        <v>248.2333333333333</v>
+        <v>248.2666666666667</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -709,9 +747,12 @@
         <v>2042720</v>
       </c>
       <c r="G13" t="n">
-        <v>248.2</v>
+        <v>248.2333333333333</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -732,12 +773,15 @@
         <v>248</v>
       </c>
       <c r="F14" t="n">
-        <v>2035210</v>
+        <v>2042720</v>
       </c>
       <c r="G14" t="n">
-        <v>248.1666666666667</v>
+        <v>248.2</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -758,12 +802,15 @@
         <v>248</v>
       </c>
       <c r="F15" t="n">
-        <v>2029163.724</v>
+        <v>2035210</v>
       </c>
       <c r="G15" t="n">
-        <v>248.1333333333333</v>
+        <v>248.1666666666667</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -778,18 +825,21 @@
         <v>248</v>
       </c>
       <c r="D16" t="n">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E16" t="n">
         <v>248</v>
       </c>
       <c r="F16" t="n">
-        <v>2048543.717</v>
+        <v>2029163.724</v>
       </c>
       <c r="G16" t="n">
-        <v>248.1166666666667</v>
+        <v>248.1333333333333</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -804,18 +854,21 @@
         <v>248</v>
       </c>
       <c r="D17" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E17" t="n">
         <v>248</v>
       </c>
       <c r="F17" t="n">
-        <v>2050230</v>
+        <v>2048543.717</v>
       </c>
       <c r="G17" t="n">
-        <v>248.1</v>
+        <v>248.1166666666667</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -830,18 +883,21 @@
         <v>248</v>
       </c>
       <c r="D18" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E18" t="n">
         <v>248</v>
       </c>
       <c r="F18" t="n">
-        <v>2035210</v>
+        <v>2050230</v>
       </c>
       <c r="G18" t="n">
-        <v>248.0833333333333</v>
+        <v>248.1</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -862,12 +918,15 @@
         <v>248</v>
       </c>
       <c r="F19" t="n">
-        <v>2050230</v>
+        <v>2035210</v>
       </c>
       <c r="G19" t="n">
-        <v>248.0666666666667</v>
+        <v>248.0833333333333</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,12 +947,15 @@
         <v>248</v>
       </c>
       <c r="F20" t="n">
-        <v>2065250</v>
+        <v>2050230</v>
       </c>
       <c r="G20" t="n">
-        <v>248.05</v>
+        <v>248.0666666666667</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -914,12 +976,15 @@
         <v>248</v>
       </c>
       <c r="F21" t="n">
-        <v>1659710</v>
+        <v>2065250</v>
       </c>
       <c r="G21" t="n">
-        <v>248.0333333333333</v>
+        <v>248.05</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C22" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D22" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E22" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F22" t="n">
-        <v>2288.439</v>
+        <v>1659710</v>
       </c>
       <c r="G22" t="n">
         <v>248.0333333333333</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C23" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D23" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E23" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F23" t="n">
-        <v>21.5496</v>
+        <v>2288.439</v>
       </c>
       <c r="G23" t="n">
-        <v>248.05</v>
+        <v>248.0333333333333</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,12 +1063,15 @@
         <v>250</v>
       </c>
       <c r="F24" t="n">
-        <v>10.9856</v>
+        <v>21.5496</v>
       </c>
       <c r="G24" t="n">
-        <v>248.0833333333333</v>
+        <v>248.05</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1018,12 +1092,15 @@
         <v>250</v>
       </c>
       <c r="F25" t="n">
-        <v>9.8872</v>
+        <v>10.9856</v>
       </c>
       <c r="G25" t="n">
-        <v>248.1166666666667</v>
+        <v>248.0833333333333</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,12 +1121,15 @@
         <v>250</v>
       </c>
       <c r="F26" t="n">
-        <v>4.0543</v>
+        <v>9.8872</v>
       </c>
       <c r="G26" t="n">
-        <v>248.15</v>
+        <v>248.1166666666667</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1070,12 +1150,15 @@
         <v>250</v>
       </c>
       <c r="F27" t="n">
-        <v>219.543</v>
+        <v>4.0543</v>
       </c>
       <c r="G27" t="n">
-        <v>248.1833333333333</v>
+        <v>248.15</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1096,12 +1179,15 @@
         <v>250</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0002</v>
+        <v>219.543</v>
       </c>
       <c r="G28" t="n">
-        <v>248.2166666666667</v>
+        <v>248.1833333333333</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C29" t="n">
         <v>250</v>
       </c>
       <c r="D29" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E29" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F29" t="n">
-        <v>56.1435</v>
+        <v>0.0002</v>
       </c>
       <c r="G29" t="n">
-        <v>248.25</v>
+        <v>248.2166666666667</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C30" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D30" t="n">
         <v>251</v>
       </c>
       <c r="E30" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F30" t="n">
-        <v>4000</v>
+        <v>56.1435</v>
       </c>
       <c r="G30" t="n">
-        <v>248.3</v>
+        <v>248.25</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,12 +1266,15 @@
         <v>251</v>
       </c>
       <c r="F31" t="n">
-        <v>3940.0213</v>
+        <v>4000</v>
       </c>
       <c r="G31" t="n">
-        <v>248.35</v>
+        <v>248.3</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C32" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D32" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E32" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F32" t="n">
-        <v>656.774</v>
+        <v>3940.0213</v>
       </c>
       <c r="G32" t="n">
-        <v>248.4166666666667</v>
+        <v>248.35</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1217,21 +1315,24 @@
         <v>252</v>
       </c>
       <c r="C33" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D33" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E33" t="n">
         <v>252</v>
       </c>
       <c r="F33" t="n">
-        <v>18740.3917</v>
+        <v>656.774</v>
       </c>
       <c r="G33" t="n">
-        <v>248.5</v>
+        <v>248.4166666666667</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C34" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D34" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E34" t="n">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>18740.3917</v>
       </c>
       <c r="G34" t="n">
-        <v>248.6166666666667</v>
+        <v>248.5</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C35" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D35" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E35" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F35" t="n">
-        <v>1.9766</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>248.7666666666667</v>
+        <v>248.6166666666667</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1304,12 +1411,15 @@
         <v>257</v>
       </c>
       <c r="F36" t="n">
-        <v>1374.8132</v>
+        <v>1.9766</v>
       </c>
       <c r="G36" t="n">
-        <v>248.9166666666667</v>
+        <v>248.7666666666667</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1330,12 +1440,15 @@
         <v>257</v>
       </c>
       <c r="F37" t="n">
-        <v>325.2607</v>
+        <v>1374.8132</v>
       </c>
       <c r="G37" t="n">
-        <v>249.0666666666667</v>
+        <v>248.9166666666667</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1356,12 +1469,15 @@
         <v>257</v>
       </c>
       <c r="F38" t="n">
-        <v>575.8647</v>
+        <v>325.2607</v>
       </c>
       <c r="G38" t="n">
-        <v>249.2166666666667</v>
+        <v>249.0666666666667</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1382,12 +1498,15 @@
         <v>257</v>
       </c>
       <c r="F39" t="n">
-        <v>7945.7548</v>
+        <v>575.8647</v>
       </c>
       <c r="G39" t="n">
-        <v>249.3666666666667</v>
+        <v>249.2166666666667</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C40" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D40" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E40" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F40" t="n">
-        <v>3956.4586</v>
+        <v>7945.7548</v>
       </c>
       <c r="G40" t="n">
-        <v>249.4666666666667</v>
+        <v>249.3666666666667</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1425,21 +1547,24 @@
         <v>258</v>
       </c>
       <c r="C41" t="n">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D41" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E41" t="n">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F41" t="n">
-        <v>3833.108393436293</v>
+        <v>3956.4586</v>
       </c>
       <c r="G41" t="n">
-        <v>249.65</v>
+        <v>249.4666666666667</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C42" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D42" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E42" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F42" t="n">
-        <v>565.066</v>
+        <v>3833.108393436293</v>
       </c>
       <c r="G42" t="n">
-        <v>249.75</v>
+        <v>249.65</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C43" t="n">
         <v>254</v>
       </c>
       <c r="D43" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E43" t="n">
         <v>254</v>
       </c>
       <c r="F43" t="n">
-        <v>324.4475</v>
+        <v>565.066</v>
       </c>
       <c r="G43" t="n">
-        <v>249.85</v>
+        <v>249.75</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1503,21 +1634,24 @@
         <v>255</v>
       </c>
       <c r="C44" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D44" t="n">
         <v>255</v>
       </c>
       <c r="E44" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F44" t="n">
-        <v>131.0635</v>
+        <v>324.4475</v>
       </c>
       <c r="G44" t="n">
-        <v>249.9666666666667</v>
+        <v>249.85</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1529,21 +1663,24 @@
         <v>255</v>
       </c>
       <c r="C45" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D45" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E45" t="n">
         <v>255</v>
       </c>
       <c r="F45" t="n">
-        <v>259.6286</v>
+        <v>131.0635</v>
       </c>
       <c r="G45" t="n">
-        <v>250.1333333333333</v>
+        <v>249.9666666666667</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C46" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D46" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E46" t="n">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F46" t="n">
-        <v>698</v>
+        <v>259.6286</v>
       </c>
       <c r="G46" t="n">
-        <v>250.3333333333333</v>
+        <v>250.1333333333333</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1581,21 +1721,24 @@
         <v>259</v>
       </c>
       <c r="C47" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D47" t="n">
+        <v>260</v>
+      </c>
+      <c r="E47" t="n">
         <v>259</v>
       </c>
-      <c r="E47" t="n">
-        <v>256</v>
-      </c>
       <c r="F47" t="n">
-        <v>1148.1739</v>
+        <v>698</v>
       </c>
       <c r="G47" t="n">
-        <v>250.4666666666667</v>
+        <v>250.3333333333333</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C48" t="n">
         <v>256</v>
       </c>
       <c r="D48" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E48" t="n">
         <v>256</v>
       </c>
       <c r="F48" t="n">
-        <v>194</v>
+        <v>1148.1739</v>
       </c>
       <c r="G48" t="n">
-        <v>250.6</v>
+        <v>250.4666666666667</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1788,15 @@
         <v>256</v>
       </c>
       <c r="F49" t="n">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="G49" t="n">
-        <v>250.7333333333333</v>
+        <v>250.6</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1659,21 +1808,24 @@
         <v>256</v>
       </c>
       <c r="C50" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D50" t="n">
         <v>256</v>
       </c>
       <c r="E50" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F50" t="n">
-        <v>163.237</v>
+        <v>57</v>
       </c>
       <c r="G50" t="n">
-        <v>250.85</v>
+        <v>250.7333333333333</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C51" t="n">
         <v>255</v>
       </c>
       <c r="D51" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E51" t="n">
         <v>255</v>
       </c>
       <c r="F51" t="n">
-        <v>269.325</v>
+        <v>163.237</v>
       </c>
       <c r="G51" t="n">
-        <v>250.9666666666667</v>
+        <v>250.85</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1720,12 +1875,15 @@
         <v>255</v>
       </c>
       <c r="F52" t="n">
-        <v>25</v>
+        <v>269.325</v>
       </c>
       <c r="G52" t="n">
-        <v>251.0833333333333</v>
+        <v>250.9666666666667</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1746,12 +1904,15 @@
         <v>255</v>
       </c>
       <c r="F53" t="n">
-        <v>145.706</v>
+        <v>25</v>
       </c>
       <c r="G53" t="n">
-        <v>251.2</v>
+        <v>251.0833333333333</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1763,21 +1924,24 @@
         <v>255</v>
       </c>
       <c r="C54" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D54" t="n">
         <v>255</v>
       </c>
       <c r="E54" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F54" t="n">
-        <v>11160.7344</v>
+        <v>145.706</v>
       </c>
       <c r="G54" t="n">
-        <v>251.25</v>
+        <v>251.2</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C55" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D55" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E55" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F55" t="n">
-        <v>1058.823</v>
+        <v>11160.7344</v>
       </c>
       <c r="G55" t="n">
-        <v>251.3166666666667</v>
+        <v>251.25</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C56" t="n">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D56" t="n">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E56" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F56" t="n">
-        <v>9777.8734</v>
+        <v>1058.823</v>
       </c>
       <c r="G56" t="n">
-        <v>251.4166666666667</v>
+        <v>251.3166666666667</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C57" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D57" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E57" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F57" t="n">
-        <v>40.0869</v>
+        <v>9777.8734</v>
       </c>
       <c r="G57" t="n">
-        <v>251.5</v>
+        <v>251.4166666666667</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1876,12 +2049,15 @@
         <v>253</v>
       </c>
       <c r="F58" t="n">
-        <v>297.4911</v>
+        <v>40.0869</v>
       </c>
       <c r="G58" t="n">
-        <v>251.5833333333333</v>
+        <v>251.5</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1902,12 +2078,15 @@
         <v>253</v>
       </c>
       <c r="F59" t="n">
-        <v>7292.8418</v>
+        <v>297.4911</v>
       </c>
       <c r="G59" t="n">
-        <v>251.6666666666667</v>
+        <v>251.5833333333333</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1928,12 +2107,15 @@
         <v>253</v>
       </c>
       <c r="F60" t="n">
-        <v>2130.5059</v>
+        <v>7292.8418</v>
       </c>
       <c r="G60" t="n">
-        <v>251.75</v>
+        <v>251.6666666666667</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1954,12 +2136,15 @@
         <v>253</v>
       </c>
       <c r="F61" t="n">
-        <v>1389.0609</v>
+        <v>2130.5059</v>
       </c>
       <c r="G61" t="n">
-        <v>251.8333333333333</v>
+        <v>251.75</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1980,12 +2165,15 @@
         <v>253</v>
       </c>
       <c r="F62" t="n">
-        <v>1351.4387</v>
+        <v>1389.0609</v>
       </c>
       <c r="G62" t="n">
-        <v>251.9166666666667</v>
+        <v>251.8333333333333</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C63" t="n">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D63" t="n">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E63" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F63" t="n">
-        <v>4658.8701</v>
+        <v>1351.4387</v>
       </c>
       <c r="G63" t="n">
-        <v>252.1</v>
+        <v>251.9166666666667</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C64" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D64" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E64" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F64" t="n">
-        <v>40.899</v>
+        <v>4658.8701</v>
       </c>
       <c r="G64" t="n">
-        <v>252.2</v>
+        <v>252.1</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C65" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D65" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E65" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>40.899</v>
       </c>
       <c r="G65" t="n">
-        <v>252.35</v>
+        <v>252.2</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,12 +2281,15 @@
         <v>257</v>
       </c>
       <c r="F66" t="n">
-        <v>229.5</v>
+        <v>5</v>
       </c>
       <c r="G66" t="n">
-        <v>252.5</v>
+        <v>252.35</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2101,21 +2301,24 @@
         <v>257</v>
       </c>
       <c r="C67" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D67" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E67" t="n">
         <v>257</v>
       </c>
       <c r="F67" t="n">
-        <v>3057.6137</v>
+        <v>229.5</v>
       </c>
       <c r="G67" t="n">
-        <v>252.6833333333333</v>
+        <v>252.5</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,7 +2327,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C68" t="n">
         <v>259</v>
@@ -2133,15 +2336,18 @@
         <v>259</v>
       </c>
       <c r="E68" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F68" t="n">
-        <v>6570.4591</v>
+        <v>3057.6137</v>
       </c>
       <c r="G68" t="n">
-        <v>252.8666666666667</v>
+        <v>252.6833333333333</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C69" t="n">
         <v>259</v>
       </c>
       <c r="D69" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E69" t="n">
         <v>259</v>
       </c>
       <c r="F69" t="n">
-        <v>21476.6115</v>
+        <v>6570.4591</v>
       </c>
       <c r="G69" t="n">
-        <v>253.05</v>
+        <v>252.8666666666667</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,25 +2385,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C70" t="n">
         <v>259</v>
       </c>
       <c r="D70" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E70" t="n">
         <v>259</v>
       </c>
       <c r="F70" t="n">
-        <v>3489.8942</v>
+        <v>21476.6115</v>
       </c>
       <c r="G70" t="n">
-        <v>253.2333333333333</v>
+        <v>253.05</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2205,22 +2417,25 @@
         <v>259</v>
       </c>
       <c r="C71" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D71" t="n">
         <v>259</v>
       </c>
       <c r="E71" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F71" t="n">
-        <v>11447.92</v>
+        <v>3489.8942</v>
       </c>
       <c r="G71" t="n">
-        <v>253.3333333333333</v>
+        <v>253.2333333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>259</v>
+      </c>
+      <c r="C72" t="n">
         <v>254</v>
       </c>
-      <c r="C72" t="n">
-        <v>251</v>
-      </c>
       <c r="D72" t="n">
+        <v>259</v>
+      </c>
+      <c r="E72" t="n">
         <v>254</v>
       </c>
-      <c r="E72" t="n">
-        <v>251</v>
-      </c>
       <c r="F72" t="n">
-        <v>5326.1194</v>
+        <v>11447.92</v>
       </c>
       <c r="G72" t="n">
-        <v>253.3833333333333</v>
+        <v>253.3333333333333</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2257,21 +2475,24 @@
         <v>254</v>
       </c>
       <c r="C73" t="n">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D73" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E73" t="n">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F73" t="n">
-        <v>1151.0412</v>
+        <v>5326.1194</v>
       </c>
       <c r="G73" t="n">
-        <v>253.5</v>
+        <v>253.3833333333333</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,7 +2501,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C74" t="n">
         <v>255</v>
@@ -2289,15 +2510,18 @@
         <v>255</v>
       </c>
       <c r="E74" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F74" t="n">
-        <v>1020.472</v>
+        <v>1151.0412</v>
       </c>
       <c r="G74" t="n">
-        <v>253.6166666666667</v>
+        <v>253.5</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2318,12 +2542,15 @@
         <v>255</v>
       </c>
       <c r="F75" t="n">
-        <v>503.815</v>
+        <v>1020.472</v>
       </c>
       <c r="G75" t="n">
-        <v>253.7333333333333</v>
+        <v>253.6166666666667</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,12 +2571,15 @@
         <v>255</v>
       </c>
       <c r="F76" t="n">
-        <v>48.6054</v>
+        <v>503.815</v>
       </c>
       <c r="G76" t="n">
-        <v>253.85</v>
+        <v>253.7333333333333</v>
       </c>
       <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2370,12 +2600,15 @@
         <v>255</v>
       </c>
       <c r="F77" t="n">
-        <v>3581.7222</v>
+        <v>48.6054</v>
       </c>
       <c r="G77" t="n">
-        <v>253.9666666666667</v>
+        <v>253.85</v>
       </c>
       <c r="H77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C78" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D78" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E78" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>3581.7222</v>
       </c>
       <c r="G78" t="n">
-        <v>254.1333333333333</v>
+        <v>253.9666666666667</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2413,21 +2649,24 @@
         <v>258</v>
       </c>
       <c r="C79" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D79" t="n">
         <v>258</v>
       </c>
       <c r="E79" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="F79" t="n">
-        <v>9402.861000000001</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>254.1666666666667</v>
+        <v>254.1333333333333</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C80" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D80" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E80" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F80" t="n">
-        <v>1370.123</v>
+        <v>9402.861000000001</v>
       </c>
       <c r="G80" t="n">
-        <v>254.2666666666667</v>
+        <v>254.1666666666667</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C81" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D81" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E81" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F81" t="n">
-        <v>3564.4094</v>
+        <v>1370.123</v>
       </c>
       <c r="G81" t="n">
-        <v>254.3833333333333</v>
+        <v>254.2666666666667</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C82" t="n">
         <v>255</v>
       </c>
       <c r="D82" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E82" t="n">
         <v>255</v>
       </c>
       <c r="F82" t="n">
-        <v>49.5478</v>
+        <v>3564.4094</v>
       </c>
       <c r="G82" t="n">
-        <v>254.4833333333333</v>
+        <v>254.3833333333333</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C83" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D83" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E83" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F83" t="n">
-        <v>1179</v>
+        <v>49.5478</v>
       </c>
       <c r="G83" t="n">
-        <v>254.55</v>
+        <v>254.4833333333333</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C84" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D84" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E84" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F84" t="n">
-        <v>135.7099</v>
+        <v>1179</v>
       </c>
       <c r="G84" t="n">
-        <v>254.6333333333333</v>
+        <v>254.55</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2578,12 +2832,15 @@
         <v>255</v>
       </c>
       <c r="F85" t="n">
-        <v>4401.9512</v>
+        <v>135.7099</v>
       </c>
       <c r="G85" t="n">
-        <v>254.7166666666667</v>
+        <v>254.6333333333333</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C86" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D86" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E86" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F86" t="n">
-        <v>2001.0102</v>
+        <v>4401.9512</v>
       </c>
       <c r="G86" t="n">
-        <v>254.8333333333333</v>
+        <v>254.7166666666667</v>
       </c>
       <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,7 +2878,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C87" t="n">
         <v>257</v>
@@ -2627,15 +2887,18 @@
         <v>257</v>
       </c>
       <c r="E87" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F87" t="n">
-        <v>3046.8054</v>
+        <v>2001.0102</v>
       </c>
       <c r="G87" t="n">
-        <v>254.95</v>
+        <v>254.8333333333333</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2656,12 +2919,15 @@
         <v>257</v>
       </c>
       <c r="F88" t="n">
-        <v>889.4</v>
+        <v>3046.8054</v>
       </c>
       <c r="G88" t="n">
-        <v>255.0666666666667</v>
+        <v>254.95</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,7 +2936,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C89" t="n">
         <v>257</v>
@@ -2679,15 +2945,18 @@
         <v>257</v>
       </c>
       <c r="E89" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F89" t="n">
-        <v>1050.6962</v>
+        <v>889.4</v>
       </c>
       <c r="G89" t="n">
-        <v>255.1833333333333</v>
+        <v>255.0666666666667</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C90" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D90" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E90" t="n">
         <v>256</v>
       </c>
       <c r="F90" t="n">
-        <v>1240.619</v>
+        <v>1050.6962</v>
       </c>
       <c r="G90" t="n">
-        <v>255.2666666666667</v>
+        <v>255.1833333333333</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,10 +2994,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
+        <v>258</v>
+      </c>
+      <c r="C91" t="n">
         <v>256</v>
-      </c>
-      <c r="C91" t="n">
-        <v>258</v>
       </c>
       <c r="D91" t="n">
         <v>258</v>
@@ -2734,12 +3006,15 @@
         <v>256</v>
       </c>
       <c r="F91" t="n">
-        <v>1376.09</v>
+        <v>1240.619</v>
       </c>
       <c r="G91" t="n">
-        <v>255.3833333333333</v>
+        <v>255.2666666666667</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,10 +3023,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>256</v>
+      </c>
+      <c r="C92" t="n">
         <v>258</v>
-      </c>
-      <c r="C92" t="n">
-        <v>256</v>
       </c>
       <c r="D92" t="n">
         <v>258</v>
@@ -2760,12 +3035,15 @@
         <v>256</v>
       </c>
       <c r="F92" t="n">
-        <v>301.4138</v>
+        <v>1376.09</v>
       </c>
       <c r="G92" t="n">
-        <v>255.45</v>
+        <v>255.3833333333333</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>258</v>
+      </c>
+      <c r="C93" t="n">
         <v>256</v>
       </c>
-      <c r="C93" t="n">
-        <v>255</v>
-      </c>
       <c r="D93" t="n">
+        <v>258</v>
+      </c>
+      <c r="E93" t="n">
         <v>256</v>
       </c>
-      <c r="E93" t="n">
-        <v>255</v>
-      </c>
       <c r="F93" t="n">
-        <v>1945.6915</v>
+        <v>301.4138</v>
       </c>
       <c r="G93" t="n">
-        <v>255.4833333333333</v>
+        <v>255.45</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C94" t="n">
         <v>255</v>
       </c>
       <c r="D94" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E94" t="n">
         <v>255</v>
       </c>
       <c r="F94" t="n">
-        <v>160.649</v>
+        <v>1945.6915</v>
       </c>
       <c r="G94" t="n">
         <v>255.4833333333333</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,12 +3122,15 @@
         <v>255</v>
       </c>
       <c r="F95" t="n">
-        <v>1171.6507</v>
+        <v>160.649</v>
       </c>
       <c r="G95" t="n">
-        <v>255.45</v>
+        <v>255.4833333333333</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,12 +3151,15 @@
         <v>255</v>
       </c>
       <c r="F96" t="n">
-        <v>978.5</v>
+        <v>1171.6507</v>
       </c>
       <c r="G96" t="n">
-        <v>255.4166666666667</v>
+        <v>255.45</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C97" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D97" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E97" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F97" t="n">
-        <v>1730.3581</v>
+        <v>978.5</v>
       </c>
       <c r="G97" t="n">
         <v>255.4166666666667</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C98" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D98" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E98" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F98" t="n">
-        <v>138</v>
+        <v>1730.3581</v>
       </c>
       <c r="G98" t="n">
-        <v>255.4333333333333</v>
+        <v>255.4166666666667</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C99" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D99" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E99" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F99" t="n">
-        <v>417.9316</v>
+        <v>138</v>
       </c>
       <c r="G99" t="n">
         <v>255.4333333333333</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2968,12 +3267,15 @@
         <v>257</v>
       </c>
       <c r="F100" t="n">
-        <v>1200</v>
+        <v>417.9316</v>
       </c>
       <c r="G100" t="n">
-        <v>255.4833333333333</v>
+        <v>255.4333333333333</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2994,12 +3296,15 @@
         <v>257</v>
       </c>
       <c r="F101" t="n">
-        <v>412.5578</v>
+        <v>1200</v>
       </c>
       <c r="G101" t="n">
-        <v>255.45</v>
+        <v>255.4833333333333</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3020,12 +3325,15 @@
         <v>257</v>
       </c>
       <c r="F102" t="n">
-        <v>565</v>
+        <v>412.5578</v>
       </c>
       <c r="G102" t="n">
-        <v>255.5</v>
+        <v>255.45</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,12 +3354,15 @@
         <v>257</v>
       </c>
       <c r="F103" t="n">
-        <v>1835.2328</v>
+        <v>565</v>
       </c>
       <c r="G103" t="n">
-        <v>255.55</v>
+        <v>255.5</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3072,12 +3383,15 @@
         <v>257</v>
       </c>
       <c r="F104" t="n">
-        <v>6473.8846</v>
+        <v>1835.2328</v>
       </c>
       <c r="G104" t="n">
-        <v>255.5833333333333</v>
+        <v>255.55</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3098,12 +3412,15 @@
         <v>257</v>
       </c>
       <c r="F105" t="n">
-        <v>1556.1</v>
+        <v>6473.8846</v>
       </c>
       <c r="G105" t="n">
-        <v>255.5666666666667</v>
+        <v>255.5833333333333</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3124,12 +3441,15 @@
         <v>257</v>
       </c>
       <c r="F106" t="n">
-        <v>174.459</v>
+        <v>1556.1</v>
       </c>
       <c r="G106" t="n">
-        <v>255.5166666666667</v>
+        <v>255.5666666666667</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C107" t="n">
         <v>257</v>
       </c>
       <c r="D107" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E107" t="n">
         <v>257</v>
       </c>
       <c r="F107" t="n">
-        <v>205.997</v>
+        <v>174.459</v>
       </c>
       <c r="G107" t="n">
-        <v>255.5333333333333</v>
+        <v>255.5166666666667</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C108" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D108" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E108" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>205.997</v>
       </c>
       <c r="G108" t="n">
-        <v>255.5833333333333</v>
+        <v>255.5333333333333</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3193,21 +3519,24 @@
         <v>259</v>
       </c>
       <c r="C109" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D109" t="n">
         <v>259</v>
       </c>
       <c r="E109" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F109" t="n">
-        <v>2263.1039</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>255.6166666666667</v>
+        <v>255.5833333333333</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C110" t="n">
+        <v>258</v>
+      </c>
+      <c r="D110" t="n">
         <v>259</v>
       </c>
-      <c r="D110" t="n">
-        <v>261</v>
-      </c>
       <c r="E110" t="n">
         <v>257</v>
       </c>
       <c r="F110" t="n">
-        <v>4603.6912</v>
+        <v>2263.1039</v>
       </c>
       <c r="G110" t="n">
-        <v>255.6833333333333</v>
+        <v>255.6166666666667</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C111" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D111" t="n">
         <v>261</v>
       </c>
       <c r="E111" t="n">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>4603.6912</v>
       </c>
       <c r="G111" t="n">
-        <v>255.7833333333333</v>
+        <v>255.6833333333333</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C112" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D112" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E112" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F112" t="n">
-        <v>3240.9459</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>255.85</v>
+        <v>255.7833333333333</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C113" t="n">
         <v>259</v>
       </c>
       <c r="D113" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E113" t="n">
         <v>255</v>
       </c>
       <c r="F113" t="n">
-        <v>2120.878</v>
+        <v>3240.9459</v>
       </c>
       <c r="G113" t="n">
-        <v>255.9166666666667</v>
+        <v>255.85</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>260</v>
+      </c>
+      <c r="C114" t="n">
         <v>259</v>
       </c>
-      <c r="C114" t="n">
-        <v>260</v>
-      </c>
       <c r="D114" t="n">
         <v>260</v>
       </c>
       <c r="E114" t="n">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F114" t="n">
-        <v>12</v>
+        <v>2120.878</v>
       </c>
       <c r="G114" t="n">
-        <v>256.0666666666667</v>
+        <v>255.9166666666667</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3349,21 +3693,24 @@
         <v>259</v>
       </c>
       <c r="C115" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D115" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E115" t="n">
         <v>259</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G115" t="n">
-        <v>256.1833333333333</v>
+        <v>256.0666666666667</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C116" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D116" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E116" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F116" t="n">
-        <v>1897.9152</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>256.2333333333333</v>
+        <v>256.1833333333333</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C117" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D117" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E117" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>1897.9152</v>
       </c>
       <c r="G117" t="n">
-        <v>256.35</v>
+        <v>256.2333333333333</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3436,12 +3789,15 @@
         <v>260</v>
       </c>
       <c r="F118" t="n">
-        <v>494.802</v>
+        <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>256.4666666666666</v>
+        <v>256.35</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C119" t="n">
         <v>260</v>
       </c>
       <c r="D119" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E119" t="n">
         <v>260</v>
       </c>
       <c r="F119" t="n">
-        <v>13</v>
+        <v>494.802</v>
       </c>
       <c r="G119" t="n">
-        <v>256.5833333333333</v>
+        <v>256.4666666666666</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3479,21 +3838,24 @@
         <v>261</v>
       </c>
       <c r="C120" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D120" t="n">
         <v>261</v>
       </c>
       <c r="E120" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G120" t="n">
-        <v>256.7166666666666</v>
+        <v>256.5833333333333</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C121" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D121" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E121" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F121" t="n">
-        <v>0.2826</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>256.8333333333333</v>
+        <v>256.7166666666666</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C122" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D122" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E122" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F122" t="n">
-        <v>131.304</v>
+        <v>0.2826</v>
       </c>
       <c r="G122" t="n">
-        <v>256.9166666666667</v>
+        <v>256.8333333333333</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3557,21 +3925,24 @@
         <v>258</v>
       </c>
       <c r="C123" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D123" t="n">
         <v>258</v>
       </c>
       <c r="E123" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F123" t="n">
-        <v>2446.0536</v>
+        <v>131.304</v>
       </c>
       <c r="G123" t="n">
-        <v>256.8666666666667</v>
+        <v>256.9166666666667</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C124" t="n">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D124" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E124" t="n">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>2446.0536</v>
       </c>
       <c r="G124" t="n">
-        <v>256.9833333333333</v>
+        <v>256.8666666666667</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C125" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D125" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E125" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>257.0333333333334</v>
+        <v>256.9833333333333</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3644,12 +4021,15 @@
         <v>260</v>
       </c>
       <c r="F126" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G126" t="n">
-        <v>257.0833333333333</v>
+        <v>257.0333333333334</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3670,12 +4050,15 @@
         <v>260</v>
       </c>
       <c r="F127" t="n">
-        <v>1120.5118</v>
+        <v>59</v>
       </c>
       <c r="G127" t="n">
-        <v>257.1</v>
+        <v>257.0833333333333</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3696,12 +4079,15 @@
         <v>260</v>
       </c>
       <c r="F128" t="n">
-        <v>417.896</v>
+        <v>1120.5118</v>
       </c>
       <c r="G128" t="n">
-        <v>257.1166666666667</v>
+        <v>257.1</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3722,12 +4108,15 @@
         <v>260</v>
       </c>
       <c r="F129" t="n">
-        <v>370</v>
+        <v>417.896</v>
       </c>
       <c r="G129" t="n">
-        <v>257.1333333333333</v>
+        <v>257.1166666666667</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3748,12 +4137,15 @@
         <v>260</v>
       </c>
       <c r="F130" t="n">
-        <v>12833.7998</v>
+        <v>370</v>
       </c>
       <c r="G130" t="n">
-        <v>257.15</v>
+        <v>257.1333333333333</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C131" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D131" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E131" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>12833.7998</v>
       </c>
       <c r="G131" t="n">
-        <v>257.2666666666667</v>
+        <v>257.15</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3800,12 +4195,15 @@
         <v>261</v>
       </c>
       <c r="F132" t="n">
-        <v>17.9175</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>257.4333333333333</v>
+        <v>257.2666666666667</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3826,12 +4224,15 @@
         <v>261</v>
       </c>
       <c r="F133" t="n">
-        <v>51.6071</v>
+        <v>17.9175</v>
       </c>
       <c r="G133" t="n">
-        <v>257.5333333333334</v>
+        <v>257.4333333333333</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3843,21 +4244,24 @@
         <v>261</v>
       </c>
       <c r="C134" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D134" t="n">
         <v>261</v>
       </c>
       <c r="E134" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F134" t="n">
-        <v>220.7885</v>
+        <v>51.6071</v>
       </c>
       <c r="G134" t="n">
-        <v>257.5833333333333</v>
+        <v>257.5333333333334</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,544 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
+        <v>261</v>
+      </c>
+      <c r="C135" t="n">
         <v>258</v>
       </c>
-      <c r="C135" t="n">
-        <v>252</v>
-      </c>
       <c r="D135" t="n">
+        <v>261</v>
+      </c>
+      <c r="E135" t="n">
         <v>258</v>
       </c>
-      <c r="E135" t="n">
-        <v>252</v>
-      </c>
       <c r="F135" t="n">
-        <v>29996.6895</v>
+        <v>220.7885</v>
       </c>
       <c r="G135" t="n">
-        <v>257.5333333333334</v>
+        <v>257.5833333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>259</v>
-      </c>
-      <c r="C136" t="n">
-        <v>259</v>
-      </c>
-      <c r="D136" t="n">
-        <v>259</v>
-      </c>
-      <c r="E136" t="n">
-        <v>259</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1</v>
-      </c>
-      <c r="G136" t="n">
-        <v>257.6</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>259</v>
-      </c>
-      <c r="C137" t="n">
-        <v>259</v>
-      </c>
-      <c r="D137" t="n">
-        <v>259</v>
-      </c>
-      <c r="E137" t="n">
-        <v>259</v>
-      </c>
-      <c r="F137" t="n">
-        <v>21.0424</v>
-      </c>
-      <c r="G137" t="n">
-        <v>257.6666666666667</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>255</v>
-      </c>
-      <c r="C138" t="n">
-        <v>254</v>
-      </c>
-      <c r="D138" t="n">
-        <v>255</v>
-      </c>
-      <c r="E138" t="n">
-        <v>253</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1827.4304</v>
-      </c>
-      <c r="G138" t="n">
-        <v>257.6</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>252</v>
-      </c>
-      <c r="C139" t="n">
-        <v>252</v>
-      </c>
-      <c r="D139" t="n">
-        <v>252</v>
-      </c>
-      <c r="E139" t="n">
-        <v>252</v>
-      </c>
-      <c r="F139" t="n">
-        <v>3236.7585</v>
-      </c>
-      <c r="G139" t="n">
-        <v>257.6333333333333</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>253</v>
-      </c>
-      <c r="C140" t="n">
-        <v>252</v>
-      </c>
-      <c r="D140" t="n">
-        <v>253</v>
-      </c>
-      <c r="E140" t="n">
-        <v>252</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1043.762</v>
-      </c>
-      <c r="G140" t="n">
-        <v>257.6</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>255</v>
-      </c>
-      <c r="C141" t="n">
-        <v>255</v>
-      </c>
-      <c r="D141" t="n">
-        <v>255</v>
-      </c>
-      <c r="E141" t="n">
-        <v>255</v>
-      </c>
-      <c r="F141" t="n">
-        <v>4.7603</v>
-      </c>
-      <c r="G141" t="n">
-        <v>257.6</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>255</v>
-      </c>
-      <c r="C142" t="n">
-        <v>255</v>
-      </c>
-      <c r="D142" t="n">
-        <v>255</v>
-      </c>
-      <c r="E142" t="n">
-        <v>255</v>
-      </c>
-      <c r="F142" t="n">
-        <v>189.3992</v>
-      </c>
-      <c r="G142" t="n">
-        <v>257.6</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>258</v>
-      </c>
-      <c r="C143" t="n">
-        <v>258</v>
-      </c>
-      <c r="D143" t="n">
-        <v>258</v>
-      </c>
-      <c r="E143" t="n">
-        <v>258</v>
-      </c>
-      <c r="F143" t="n">
-        <v>2</v>
-      </c>
-      <c r="G143" t="n">
-        <v>257.6666666666667</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>256</v>
-      </c>
-      <c r="C144" t="n">
-        <v>256</v>
-      </c>
-      <c r="D144" t="n">
-        <v>256</v>
-      </c>
-      <c r="E144" t="n">
-        <v>256</v>
-      </c>
-      <c r="F144" t="n">
-        <v>102.99</v>
-      </c>
-      <c r="G144" t="n">
-        <v>257.6833333333333</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>258</v>
-      </c>
-      <c r="C145" t="n">
-        <v>258</v>
-      </c>
-      <c r="D145" t="n">
-        <v>258</v>
-      </c>
-      <c r="E145" t="n">
-        <v>258</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1.0844</v>
-      </c>
-      <c r="G145" t="n">
-        <v>257.7333333333333</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>257</v>
-      </c>
-      <c r="C146" t="n">
-        <v>258</v>
-      </c>
-      <c r="D146" t="n">
-        <v>258</v>
-      </c>
-      <c r="E146" t="n">
-        <v>257</v>
-      </c>
-      <c r="F146" t="n">
-        <v>2.4457</v>
-      </c>
-      <c r="G146" t="n">
-        <v>257.75</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>258</v>
-      </c>
-      <c r="C147" t="n">
-        <v>258</v>
-      </c>
-      <c r="D147" t="n">
-        <v>258</v>
-      </c>
-      <c r="E147" t="n">
-        <v>258</v>
-      </c>
-      <c r="F147" t="n">
-        <v>1</v>
-      </c>
-      <c r="G147" t="n">
-        <v>257.7666666666667</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>256</v>
-      </c>
-      <c r="C148" t="n">
-        <v>256</v>
-      </c>
-      <c r="D148" t="n">
-        <v>256</v>
-      </c>
-      <c r="E148" t="n">
-        <v>256</v>
-      </c>
-      <c r="F148" t="n">
-        <v>51.495</v>
-      </c>
-      <c r="G148" t="n">
-        <v>257.75</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>258</v>
-      </c>
-      <c r="C149" t="n">
-        <v>258</v>
-      </c>
-      <c r="D149" t="n">
-        <v>258</v>
-      </c>
-      <c r="E149" t="n">
-        <v>258</v>
-      </c>
-      <c r="F149" t="n">
-        <v>2.2641</v>
-      </c>
-      <c r="G149" t="n">
-        <v>257.7666666666667</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>258</v>
-      </c>
-      <c r="C150" t="n">
-        <v>258</v>
-      </c>
-      <c r="D150" t="n">
-        <v>258</v>
-      </c>
-      <c r="E150" t="n">
-        <v>258</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1805.9031</v>
-      </c>
-      <c r="G150" t="n">
-        <v>257.8</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>258</v>
-      </c>
-      <c r="C151" t="n">
-        <v>258</v>
-      </c>
-      <c r="D151" t="n">
-        <v>258</v>
-      </c>
-      <c r="E151" t="n">
-        <v>258</v>
-      </c>
-      <c r="F151" t="n">
-        <v>642.0074</v>
-      </c>
-      <c r="G151" t="n">
-        <v>257.8</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>258</v>
-      </c>
-      <c r="C152" t="n">
-        <v>258</v>
-      </c>
-      <c r="D152" t="n">
-        <v>258</v>
-      </c>
-      <c r="E152" t="n">
-        <v>258</v>
-      </c>
-      <c r="F152" t="n">
-        <v>212.436</v>
-      </c>
-      <c r="G152" t="n">
-        <v>257.8333333333333</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>259</v>
-      </c>
-      <c r="C153" t="n">
-        <v>259</v>
-      </c>
-      <c r="D153" t="n">
-        <v>259</v>
-      </c>
-      <c r="E153" t="n">
-        <v>259</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1</v>
-      </c>
-      <c r="G153" t="n">
-        <v>257.9</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>259</v>
-      </c>
-      <c r="C154" t="n">
-        <v>259</v>
-      </c>
-      <c r="D154" t="n">
-        <v>259</v>
-      </c>
-      <c r="E154" t="n">
-        <v>259</v>
-      </c>
-      <c r="F154" t="n">
-        <v>1817.9013</v>
-      </c>
-      <c r="G154" t="n">
-        <v>257.9666666666666</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>259</v>
-      </c>
-      <c r="C155" t="n">
-        <v>255</v>
-      </c>
-      <c r="D155" t="n">
-        <v>259</v>
-      </c>
-      <c r="E155" t="n">
-        <v>255</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1731.1759</v>
-      </c>
-      <c r="G155" t="n">
-        <v>257.9666666666666</v>
-      </c>
-      <c r="H155" t="n">
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
